--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -113,6 +113,104 @@
   </si>
   <si>
     <t xml:space="preserve">Popescu Ionel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaymentsRepository, 51</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rewriting a whole file for adding a single entry is a bad decision</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is no branching</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdersGUI, 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loop is only breaking on Exception Thrown, should be handled more gracefully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not found</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuRepository, 23  PaymentsRepository, 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BufferedReader is never closed, which can cause errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaymentsRepository, 65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The BufferedWriter is never closed, which can cause errors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaymentsRepository, 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Already Caught Exception is handled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdersGUI, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The class never uses/initialize or anything its own declared PizzaService, but receives a parameter when needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuRepository, 42
+PaymentsRepository, 40</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primitive types and wrapper types are combined, which can lead to errors (e.g. trying to store null in a primitive)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OrdersGUIController, 25-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw use of parameterized class 'TableView' 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PizzaService, 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double variable is initialized with float value</t>
   </si>
   <si>
     <t xml:space="preserve">Tool-based Code Analysis</t>
@@ -146,7 +244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -217,6 +315,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <i val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -306,7 +411,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -413,6 +518,10 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -812,7 +921,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="16.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="22.04"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.9"/>
   </cols>
   <sheetData>
@@ -1107,8 +1216,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1116,7 +1225,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="41.42"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="6" style="1" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.73"/>
@@ -1225,130 +1334,204 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
+      <c r="C11" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E11" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="n">
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="n">
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="15"/>
+      <c r="C13" s="15" t="s">
+        <v>38</v>
+      </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E13" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="15"/>
+      <c r="C14" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E14" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-    </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
         <f aca="false">B16+1</f>
         <v>8</v>
       </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="6" t="n">
         <f aca="false">B17+1</f>
         <v>9</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="6" t="n">
         <f aca="false">B18+1</f>
         <v>10</v>
       </c>
-      <c r="C19" s="15"/>
+      <c r="C19" s="15" t="s">
+        <v>53</v>
+      </c>
       <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E19" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="6" t="n">
         <f aca="false">B19+1</f>
         <v>11</v>
       </c>
-      <c r="C20" s="15"/>
+      <c r="C20" s="15" t="s">
+        <v>54</v>
+      </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E20" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="6" t="n">
         <f aca="false">B20+1</f>
         <v>12</v>
       </c>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="6" t="n">
         <f aca="false">B21+1</f>
         <v>13</v>
       </c>
-      <c r="C22" s="15"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
+      <c r="C22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="6" t="n">
         <f aca="false">B22+1</f>
         <v>14</v>
       </c>
-      <c r="C23" s="15"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+      <c r="C23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="6" t="n">
@@ -1450,8 +1633,8 @@
   </sheetPr>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J5" activeCellId="0" sqref="J5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1480,7 +1663,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1506,7 +1689,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="24" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -1514,7 +1697,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="J4" s="6" t="n">
         <v>231</v>
@@ -1549,16 +1732,16 @@
         <v>17</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1774,12 +1957,12 @@
       <c r="E31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="28"/>
+      <c r="C32" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28"/>
+      <c r="F32" s="29"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="98">
   <si>
     <t xml:space="preserve">do not print this form</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t xml:space="preserve">Popescu Ionel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13.03.2023</t>
   </si>
   <si>
     <t xml:space="preserve">C01</t>
@@ -213,6 +216,9 @@
     <t xml:space="preserve">Double variable is initialized with float value</t>
   </si>
   <si>
+    <t xml:space="preserve">45 min</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tool-based Code Analysis</t>
   </si>
   <si>
@@ -234,7 +240,506 @@
     <t xml:space="preserve">After/Argument</t>
   </si>
   <si>
-    <t xml:space="preserve">Effort to perform tool-based code analysis (hours):</t>
+    <t xml:space="preserve">PaymentType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constant names should comply with a naming convention</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public enum </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">PaymentType {
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Cash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">Card
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Not changed, as the storing of the data was already using the Cash/Card words, it would crash for sure if it would be changed only in code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuRepository, 18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sections of code should not be commented out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//ClassLoader classLoader = MenuRepository.class.getClassLoader();
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removed comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuRepository, 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Methods should not be empty</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">MenuRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(){
+}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">public </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFFFC66D"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">MenuRepository</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">(){
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF808080"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">// default constructor
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">MenuRepository, 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raw types should  not be used</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">listMenu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ArrayList()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">this</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">listMenu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">ArrayList&lt;&gt;()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">PaymentRepository, 55, 21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">//ClassLoader classLoader = PaymentRepository.class.getClassLoader();</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PaymentAlert 11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">String literals should not be duplicated</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.println(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"--------------------------"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">private final </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">String </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">delimitation </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">= </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">"--------------------------"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Mainly all the code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard outputs should not be used directly to log anything</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">System.</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="11.5"/>
+        <color rgb="FF9876AA"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.println(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FF6A8759"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">alLogs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFA9B7C6"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11.5"/>
+        <color rgb="FFCC7832"/>
+        <rFont val="JetBrains Mono"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Not changed, for the moment an actual logger is not needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effort to perform tool-based code analysis (hours):45 min</t>
   </si>
 </sst>
 </file>
@@ -244,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -316,11 +821,54 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11.5"/>
+      <color rgb="FFCC7832"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="11.5"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FFFFC66D"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF9876AA"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
       <i val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11.5"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="5">
@@ -411,7 +959,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -521,6 +1069,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -554,12 +1114,12 @@
       <rgbColor rgb="FF800000"/>
       <rgbColor rgb="FF008000"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF6A8759"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFCCC1DA"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFA9B7C6"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFEBF1DE"/>
       <rgbColor rgb="FFE6E0EC"/>
@@ -586,11 +1146,11 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC66D"/>
       <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FFCC7832"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF9876AA"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
@@ -1217,7 +1777,7 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1310,14 +1870,18 @@
       <c r="C6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="12"/>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12"/>
+      <c r="D7" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="E7" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1354,11 +1918,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D11" s="15"/>
       <c r="E11" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1367,13 +1931,13 @@
         <v>3</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1382,11 +1946,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1395,11 +1959,11 @@
         <v>5</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1408,13 +1972,13 @@
         <v>6</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1423,13 +1987,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="27" t="s">
         <v>46</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1438,13 +2002,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1453,13 +2017,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,11 +2032,11 @@
         <v>10</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1481,11 +2045,11 @@
         <v>11</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D20" s="16"/>
       <c r="E20" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1494,13 +2058,13 @@
         <v>12</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1509,13 +2073,13 @@
         <v>13</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1524,13 +2088,13 @@
         <v>14</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1604,7 +2168,9 @@
         <v>21</v>
       </c>
       <c r="D32" s="20"/>
-      <c r="E32" s="15"/>
+      <c r="E32" s="15" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1634,17 +2200,17 @@
   <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90234375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="23.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="16.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="23.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="40.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="27.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.28"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="7" style="1" width="8.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.73"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="10" style="1" width="8.9"/>
@@ -1663,7 +2229,7 @@
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1689,7 +2255,7 @@
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="24" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -1697,7 +2263,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="J4" s="6" t="n">
         <v>231</v>
@@ -1707,7 +2273,9 @@
       <c r="C5" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="12"/>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="12"/>
       <c r="H5" s="6" t="s">
         <v>13</v>
@@ -1724,7 +2292,9 @@
       <c r="C6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12"/>
+      <c r="D6" s="12" t="s">
+        <v>30</v>
+      </c>
       <c r="E6" s="12"/>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1732,86 +2302,142 @@
         <v>17</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="55.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="6" t="n">
         <f aca="false">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="6" t="n">
         <f aca="false">B11+1</f>
         <v>3</v>
       </c>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="F12" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="6" t="n">
         <f aca="false">B12+1</f>
         <v>4</v>
       </c>
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="F13" s="27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="6" t="n">
         <f aca="false">B13+1</f>
         <v>5</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="6" t="n">
         <f aca="false">B14+1</f>
         <v>6</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="6" t="n">
         <f aca="false">B15+1</f>
         <v>7</v>
       </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="E16" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="6" t="n">
@@ -1957,12 +2583,12 @@
       <c r="E31" s="18"/>
     </row>
     <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C32" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="29"/>
+      <c r="C32" s="31" t="s">
+        <v>97</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\facultate\VVSS\Docs\Lab01\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB13DC5-7D68-4542-9505-C455E99397B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="Coding Phase Defects" sheetId="3" r:id="rId3"/>
     <sheet name="Tool-basedCodeAnalysis" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
   <si>
     <t>do not print this form</t>
   </si>
@@ -106,9 +100,6 @@
   </si>
   <si>
     <t xml:space="preserve">Author Name: </t>
-  </si>
-  <si>
-    <t>Georgescu Anca</t>
   </si>
   <si>
     <t>Review Form. Coding Defects</t>
@@ -784,12 +775,81 @@
   </si>
   <si>
     <t>Apetrei Roxana-Loredana</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>A02</t>
+  </si>
+  <si>
+    <t>A03</t>
+  </si>
+  <si>
+    <t>Functionalities from F01 are not completly covered by the architecture(restaurant and kitchen can be closed any time) and the waiter is not notified when an order is ready</t>
+  </si>
+  <si>
+    <t>A04</t>
+  </si>
+  <si>
+    <t>A05</t>
+  </si>
+  <si>
+    <t>all code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is not provided a coherent error handling strategy such as try-catch </t>
+  </si>
+  <si>
+    <t>A06</t>
+  </si>
+  <si>
+    <t>Ok-Observer and MVC design patterns are present</t>
+  </si>
+  <si>
+    <t>A08</t>
+  </si>
+  <si>
+    <t>A07</t>
+  </si>
+  <si>
+    <t>Name of the class PizzaService it is not clearly suggesting what it's implemented by this class</t>
+  </si>
+  <si>
+    <t>PizzaService</t>
+  </si>
+  <si>
+    <t>Classes don't have any description</t>
+  </si>
+  <si>
+    <t>A09</t>
+  </si>
+  <si>
+    <t>There are &lt;&lt;create&gt;&gt; dependencies from Main to Repository or Service classes although it shouldn't be</t>
+  </si>
+  <si>
+    <t>ClassDiagramDepPizzaShop_v1.0.png</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A &lt;&lt;create&gt;&gt; dependency goes from a Service class to Payment class from Model(stratified architecture isn't respected)</t>
+  </si>
+  <si>
+    <t>Anton Ioana-Maria</t>
+  </si>
+  <si>
+    <t>40 min</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="15">
     <font>
       <sz val="11"/>
@@ -985,36 +1045,6 @@
   </cellStyleXfs>
   <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1055,6 +1085,36 @@
     <xf numFmtId="16" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1430,314 +1490,314 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFCCC1DA"/>
   </sheetPr>
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="11"/>
-    <col min="2" max="2" width="12.26953125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="11" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="11"/>
-    <col min="9" max="9" width="21" style="11" customWidth="1"/>
-    <col min="10" max="10" width="14.453125" style="11" customWidth="1"/>
-    <col min="11" max="1024" width="8.90625" style="11"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="21" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.44140625" style="1" customWidth="1"/>
+    <col min="11" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="4">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="8"/>
-      <c r="H4" s="14" t="s">
+      <c r="E4" s="27"/>
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="4">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="H5" s="14" t="s">
+      <c r="E5" s="28"/>
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="4">
         <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="6"/>
+      <c r="D6" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="23">
         <v>44998</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="72.5">
-      <c r="B10" s="14">
+    <row r="10" spans="1:10" ht="72">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="D10" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="29">
-      <c r="B11" s="14">
+      <c r="C10" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="28.8">
+      <c r="B11" s="4">
         <f t="shared" ref="B11:B25" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="32" t="s">
+      <c r="C11" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="58">
-      <c r="B12" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="20" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="57.6">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D13" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="58">
-      <c r="B13" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>108</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="B14" s="14">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="11"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="B15" s="14">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="B16" s="14">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="14">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="2:5">
-      <c r="B18" s="14">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="22"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="2:5">
-      <c r="B19" s="14">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="22"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="14">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="22"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="14">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="22"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="14">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="22"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="14">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="22"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="14">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="22"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="14">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="22"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="12"/>
     </row>
     <row r="27" spans="2:5">
-      <c r="C27" s="23" t="s">
+      <c r="C27" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="20"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1754,287 +1814,339 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFCD5B5"/>
   </sheetPr>
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="11"/>
-    <col min="2" max="2" width="12.26953125" style="11" customWidth="1"/>
-    <col min="3" max="4" width="16.26953125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="11" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="11"/>
-    <col min="9" max="9" width="22" style="11" customWidth="1"/>
-    <col min="10" max="1024" width="8.90625" style="11"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.21875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="22" style="1" customWidth="1"/>
+    <col min="10" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="14">
+      <c r="J3" s="4">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E4" s="5"/>
-      <c r="H4" s="14" t="s">
+      <c r="E4" s="29"/>
+      <c r="H4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="14">
+      <c r="J4" s="4">
         <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="H5" s="14" t="s">
+      <c r="D5" s="30" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="H5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="J5" s="14">
+      <c r="J5" s="4">
         <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
+      <c r="D7" s="23">
+        <v>44998</v>
+      </c>
+      <c r="E7" s="24"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="18" t="s">
+      <c r="C9" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="8" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="B10" s="14">
+      <c r="B10" s="4">
         <v>1</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="C10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="14">
+      <c r="B11" s="4">
         <f t="shared" ref="B11:B26" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="14">
+      <c r="C11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="57.6">
+      <c r="B12" s="4">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="11" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="B13" s="14">
+      <c r="B13" s="4">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="21"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="14">
+      <c r="C13" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="28.8">
+      <c r="B14" s="4">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="B15" s="14">
+      <c r="C14" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8">
+      <c r="B15" s="4">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="21"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="B16" s="14">
+      <c r="C15" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15" s="10"/>
+      <c r="E15" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="28.8">
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="17" spans="2:5">
-      <c r="B17" s="14">
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="2:5">
-      <c r="B18" s="14">
+      <c r="C17" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="43.2">
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="14">
+      <c r="C18" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" ht="43.2">
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="20" spans="2:5">
-      <c r="B20" s="14">
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
     </row>
     <row r="21" spans="2:5">
-      <c r="B21" s="14">
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
     </row>
     <row r="22" spans="2:5">
-      <c r="B22" s="14">
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="21"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="11"/>
     </row>
     <row r="23" spans="2:5">
-      <c r="B23" s="14">
+      <c r="B23" s="4">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="11"/>
     </row>
     <row r="24" spans="2:5">
-      <c r="B24" s="14">
+      <c r="B24" s="4">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="11"/>
     </row>
     <row r="25" spans="2:5">
-      <c r="B25" s="14">
+      <c r="B25" s="4">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="11"/>
     </row>
     <row r="26" spans="2:5">
-      <c r="B26" s="14">
+      <c r="B26" s="4">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
     </row>
     <row r="28" spans="2:5">
-      <c r="C28" s="23" t="s">
+      <c r="C28" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D28" s="24"/>
-      <c r="E28" s="20"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="10" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2051,403 +2163,403 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF8EB4E3"/>
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="11"/>
-    <col min="2" max="2" width="12.26953125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="16.26953125" style="11" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="41.453125" style="11" customWidth="1"/>
-    <col min="6" max="8" width="8.90625" style="11"/>
-    <col min="9" max="9" width="26.7265625" style="11" customWidth="1"/>
-    <col min="10" max="1024" width="8.90625" style="11"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="16.21875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="41.44140625" style="1" customWidth="1"/>
+    <col min="6" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="26.77734375" style="1" customWidth="1"/>
+    <col min="10" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="H3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="E4" s="31"/>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="4">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="3" t="s">
+    <row r="5" spans="1:10">
+      <c r="C5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="H4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="14">
+      <c r="E5" s="32"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4">
         <v>231</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
+    <row r="6" spans="1:10">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="C7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="H5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="14">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="C7" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="E7" s="24"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="28.8">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="29">
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="B11" s="14">
+      <c r="B11" s="4">
         <f t="shared" ref="B11:B30" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="28.8">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="29">
-      <c r="B12" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="E12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="21" t="s">
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="B13" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21" t="s">
+    </row>
+    <row r="14" spans="1:10">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="B14" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="28.8">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="29">
-      <c r="B15" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="21" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="28.8">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="29">
-      <c r="B16" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="21" t="s">
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="17" spans="2:5">
-      <c r="B17" s="14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="20" t="s">
+      <c r="D17" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="E17" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="21" t="s">
+    </row>
+    <row r="18" spans="2:5" ht="43.2">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="43.5">
-      <c r="B18" s="14">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="20" t="s">
+      <c r="D18" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="E18" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E18" s="21" t="s">
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="2:5">
-      <c r="B19" s="14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="20" t="s">
+      <c r="D19" s="10"/>
+      <c r="E19" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5">
-      <c r="B20" s="14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="20" t="s">
+      <c r="D20" s="11"/>
+      <c r="E20" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="43.2">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" ht="43.5">
-      <c r="B21" s="14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="20" t="s">
+      <c r="D21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="E21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="21" t="s">
+    </row>
+    <row r="22" spans="2:5" ht="28.8">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" ht="29">
-      <c r="B22" s="14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="21" t="s">
+      <c r="E22" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="21" t="s">
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D23" s="11" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="23" spans="2:5">
-      <c r="B23" s="14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D23" s="21" t="s">
+      <c r="E23" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E23" s="21" t="s">
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D32" s="14"/>
+      <c r="E32" s="10" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5">
-      <c r="B24" s="14">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-    </row>
-    <row r="25" spans="2:5">
-      <c r="B25" s="14">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-    </row>
-    <row r="26" spans="2:5">
-      <c r="B26" s="14">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-    </row>
-    <row r="27" spans="2:5">
-      <c r="B27" s="14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-    </row>
-    <row r="28" spans="2:5">
-      <c r="B28" s="14">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-    </row>
-    <row r="29" spans="2:5">
-      <c r="B29" s="14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-    </row>
-    <row r="30" spans="2:5">
-      <c r="B30" s="14">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-    </row>
-    <row r="32" spans="2:5">
-      <c r="C32" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="D32" s="24"/>
-      <c r="E32" s="20" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2465,399 +2577,399 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFEBF1DE"/>
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="8.90625" style="11"/>
-    <col min="2" max="2" width="12.26953125" style="11" customWidth="1"/>
-    <col min="3" max="3" width="24" style="11" customWidth="1"/>
-    <col min="4" max="4" width="40.90625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="27" style="11" customWidth="1"/>
-    <col min="6" max="6" width="34.26953125" style="11" customWidth="1"/>
-    <col min="7" max="8" width="8.90625" style="11"/>
-    <col min="9" max="9" width="26.7265625" style="11" customWidth="1"/>
-    <col min="10" max="1024" width="8.90625" style="11"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="12.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.21875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="26.77734375" style="1" customWidth="1"/>
+    <col min="10" max="1024" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5">
-      <c r="A1" s="12"/>
-      <c r="B1" s="13" t="s">
+    <row r="1" spans="1:10" ht="15.6">
+      <c r="A1" s="2"/>
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="H3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="C4" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="H3" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="14">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="H4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="4">
         <v>231</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="C4" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="H4" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="14" t="s">
+    <row r="5" spans="1:10">
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="H5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="4">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="24"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J4" s="14">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="C5" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="H5" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="J5" s="14">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="B6" s="16"/>
-      <c r="C6" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="B9" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="18" t="s">
+      <c r="D9" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="E9" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="F9" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="18" t="s">
+    </row>
+    <row r="10" spans="1:10" ht="60">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="60">
-      <c r="B10" s="14">
-        <v>1</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="D10" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="E10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="F10" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>74</v>
-      </c>
     </row>
     <row r="11" spans="1:10" ht="75">
-      <c r="B11" s="14">
+      <c r="B11" s="4">
         <f t="shared" ref="B11:B30" si="0">B10+1</f>
         <v>2</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="F11" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F11" s="21" t="s">
+    </row>
+    <row r="12" spans="1:10" ht="45">
+      <c r="B12" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="60">
-      <c r="B12" s="14">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="C12" s="20" t="s">
+      <c r="D12" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="E12" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="E12" s="27" t="s">
+      <c r="F12" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="27" t="s">
+    </row>
+    <row r="13" spans="1:10" ht="45">
+      <c r="B13" s="4">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="45">
-      <c r="B13" s="14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C13" s="20" t="s">
+      <c r="D13" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="27" t="s">
+      <c r="F13" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="F13" s="27" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="75">
+      <c r="B14" s="4">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="75">
-      <c r="B14" s="14">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C14" s="20" t="s">
+      <c r="D14" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="E14" s="28" t="s">
+      <c r="F14" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="60">
+      <c r="B15" s="4">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="21" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="60">
-      <c r="B15" s="14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="D15" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="D15" s="21" t="s">
+      <c r="E15" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="F15" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="F15" s="27" t="s">
+    </row>
+    <row r="16" spans="1:10" ht="45">
+      <c r="B16" s="4">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="45">
-      <c r="B16" s="14">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C16" s="20" t="s">
+      <c r="D16" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="D16" s="21" t="s">
+      <c r="E16" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="E16" s="30" t="s">
+      <c r="F16" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F16" s="21" t="s">
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="4">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="4">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="4">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="4">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="10"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="4">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="4">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="4">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="4">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C24" s="10"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="4">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="4">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="4">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C28" s="10"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="4">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C29" s="10"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="4">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="C32" s="33" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="17" spans="2:6">
-      <c r="B17" s="14">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="C17" s="20"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-    </row>
-    <row r="18" spans="2:6">
-      <c r="B18" s="14">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-    </row>
-    <row r="19" spans="2:6">
-      <c r="B19" s="14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-    </row>
-    <row r="20" spans="2:6">
-      <c r="B20" s="14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C20" s="20"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-    </row>
-    <row r="21" spans="2:6">
-      <c r="B21" s="14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-    </row>
-    <row r="22" spans="2:6">
-      <c r="B22" s="14">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-    </row>
-    <row r="23" spans="2:6">
-      <c r="B23" s="14">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-    </row>
-    <row r="24" spans="2:6">
-      <c r="B24" s="14">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-    </row>
-    <row r="25" spans="2:6">
-      <c r="B25" s="14">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-    </row>
-    <row r="26" spans="2:6">
-      <c r="B26" s="14">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="C26" s="20"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
-    </row>
-    <row r="27" spans="2:6">
-      <c r="B27" s="14">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="C27" s="20"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-    </row>
-    <row r="28" spans="2:6">
-      <c r="B28" s="14">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="C28" s="20"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
-    </row>
-    <row r="29" spans="2:6">
-      <c r="B29" s="14">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C29" s="20"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="2:6">
-      <c r="B30" s="14">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C30" s="20"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-    </row>
-    <row r="32" spans="2:6">
-      <c r="C32" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="31"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/Docs/Lab01/Lab01_ReviewReport.xlsx
+++ b/Docs/Lab01/Lab01_ReviewReport.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="500" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements Phase Defects" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="134">
   <si>
     <t>do not print this form</t>
   </si>
@@ -771,9 +771,6 @@
     <t>The requirements do not specify how the system will handle the initial setup and configuration, such as entering the menu items and prices into the system.</t>
   </si>
   <si>
-    <t>4, 18</t>
-  </si>
-  <si>
     <t>Apetrei Roxana-Loredana</t>
   </si>
   <si>
@@ -844,6 +841,12 @@
   </si>
   <si>
     <t>40 min</t>
+  </si>
+  <si>
+    <t>25 min</t>
+  </si>
+  <si>
+    <t>Popescu Mihai</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1503,8 +1506,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ27"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1598,7 +1601,7 @@
         <v>15</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="24"/>
     </row>
@@ -1678,7 +1681,7 @@
         <v>101</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>107</v>
@@ -1797,7 +1800,9 @@
         <v>21</v>
       </c>
       <c r="D27" s="14"/>
-      <c r="E27" s="10"/>
+      <c r="E27" s="10" t="s">
+        <v>132</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1821,7 +1826,7 @@
   <dimension ref="A1:AMJ28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1895,7 +1900,7 @@
         <v>25</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E5" s="30"/>
       <c r="H5" s="4" t="s">
@@ -1913,7 +1918,9 @@
       <c r="C6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="24" t="s">
+        <v>130</v>
+      </c>
       <c r="E6" s="24"/>
     </row>
     <row r="7" spans="1:10">
@@ -1944,11 +1951,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1957,11 +1964,11 @@
         <v>2</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="57.6">
@@ -1970,11 +1977,11 @@
         <v>3</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1983,11 +1990,11 @@
         <v>4</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="28.8">
@@ -1996,13 +2003,13 @@
         <v>5</v>
       </c>
       <c r="C14" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D14" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="E14" s="11" t="s">
         <v>117</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="28.8">
@@ -2011,11 +2018,11 @@
         <v>6</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="11" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="28.8">
@@ -2024,13 +2031,13 @@
         <v>7</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>122</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -2039,11 +2046,11 @@
         <v>8</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:5" ht="43.2">
@@ -2052,13 +2059,13 @@
         <v>9</v>
       </c>
       <c r="C18" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>126</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="19" spans="2:5" ht="43.2">
@@ -2067,13 +2074,13 @@
         <v>10</v>
       </c>
       <c r="C19" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -2145,7 +2152,7 @@
       </c>
       <c r="D28" s="14"/>
       <c r="E28" s="10" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2169,7 +2176,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D7" sqref="D7:E7"/>
     </sheetView>
   </sheetViews>
@@ -2583,7 +2590,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ32"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6:E6"/>
     </sheetView>
   </sheetViews>
